--- a/Experimental Design/Roots.xlsx
+++ b/Experimental Design/Roots.xlsx
@@ -14,39 +14,1377 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="457">
   <si>
     <t>Root</t>
   </si>
   <si>
-    <t>vac</t>
+    <t>vet</t>
+  </si>
+  <si>
+    <t>tok</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>tik</t>
+  </si>
+  <si>
+    <t>sot</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>sis</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>tep</t>
+  </si>
+  <si>
+    <t>tod</t>
+  </si>
+  <si>
+    <t>paf</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>tut</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>hof</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>heh</t>
+  </si>
+  <si>
+    <t>sag</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>pus</t>
+  </si>
+  <si>
+    <t>teh</t>
+  </si>
+  <si>
+    <t>bic</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>kev</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>tih</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>teg</t>
+  </si>
+  <si>
+    <t>tef</t>
+  </si>
+  <si>
+    <t>coh</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>sog</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>fip</t>
+  </si>
+  <si>
+    <t>qet</t>
+  </si>
+  <si>
+    <t>tos</t>
+  </si>
+  <si>
+    <t>sef</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>dod</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>tit</t>
+  </si>
+  <si>
+    <t>ted</t>
+  </si>
+  <si>
+    <t>fet</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>ito</t>
+  </si>
+  <si>
+    <t>ode</t>
+  </si>
+  <si>
+    <t>ebo</t>
+  </si>
+  <si>
+    <t>ofa</t>
+  </si>
+  <si>
+    <t>oha</t>
+  </si>
+  <si>
+    <t>oci</t>
+  </si>
+  <si>
+    <t>ete</t>
+  </si>
+  <si>
+    <t>ati</t>
+  </si>
+  <si>
+    <t>ape</t>
+  </si>
+  <si>
+    <t>ato</t>
+  </si>
+  <si>
+    <t>ofe</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>uho</t>
+  </si>
+  <si>
+    <t>uhu</t>
+  </si>
+  <si>
+    <t>epe</t>
+  </si>
+  <si>
+    <t>oto</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <t>opi</t>
+  </si>
+  <si>
+    <t>ede</t>
+  </si>
+  <si>
+    <t>abe</t>
+  </si>
+  <si>
+    <t>aha</t>
+  </si>
+  <si>
+    <t>ahi</t>
+  </si>
+  <si>
+    <t>efe</t>
+  </si>
+  <si>
+    <t>eho</t>
+  </si>
+  <si>
+    <t>ohe</t>
+  </si>
+  <si>
+    <t>uta</t>
+  </si>
+  <si>
+    <t>obe</t>
+  </si>
+  <si>
+    <t>igi</t>
+  </si>
+  <si>
+    <t>ave</t>
+  </si>
+  <si>
+    <t>ace</t>
   </si>
   <si>
     <t>epo</t>
   </si>
   <si>
-    <t>ceso</t>
-  </si>
-  <si>
-    <t>ocuh</t>
-  </si>
-  <si>
-    <t>sobot</t>
-  </si>
-  <si>
-    <t>erpe</t>
-  </si>
-  <si>
-    <t>umh</t>
-  </si>
-  <si>
-    <t>jamd</t>
-  </si>
-  <si>
-    <t>muh</t>
+    <t>eso</t>
+  </si>
+  <si>
+    <t>ecu</t>
+  </si>
+  <si>
+    <t>ese</t>
+  </si>
+  <si>
+    <t>oca</t>
+  </si>
+  <si>
+    <t>ifi</t>
+  </si>
+  <si>
+    <t>oce</t>
+  </si>
+  <si>
+    <t>esa</t>
+  </si>
+  <si>
+    <t>ahe</t>
+  </si>
+  <si>
+    <t>afa</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>uti</t>
+  </si>
+  <si>
+    <t>oso</t>
+  </si>
+  <si>
+    <t>ige</t>
+  </si>
+  <si>
+    <t>osa</t>
+  </si>
+  <si>
+    <t>popi</t>
+  </si>
+  <si>
+    <t>pebo</t>
+  </si>
+  <si>
+    <t>geta</t>
+  </si>
+  <si>
+    <t>tega</t>
+  </si>
+  <si>
+    <t>doga</t>
+  </si>
+  <si>
+    <t>sode</t>
+  </si>
+  <si>
+    <t>hahe</t>
+  </si>
+  <si>
+    <t>saci</t>
+  </si>
+  <si>
+    <t>teto</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>tope</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>tehi</t>
+  </si>
+  <si>
+    <t>pohi</t>
+  </si>
+  <si>
+    <t>poxa</t>
+  </si>
+  <si>
+    <t>tase</t>
+  </si>
+  <si>
+    <t>dota</t>
+  </si>
+  <si>
+    <t>hopu</t>
+  </si>
+  <si>
+    <t>cabi</t>
+  </si>
+  <si>
+    <t>tepe</t>
+  </si>
+  <si>
+    <t>gihi</t>
+  </si>
+  <si>
+    <t>pesi</t>
+  </si>
+  <si>
+    <t>vefe</t>
+  </si>
+  <si>
+    <t>hasa</t>
+  </si>
+  <si>
+    <t>sica</t>
+  </si>
+  <si>
+    <t>fika</t>
+  </si>
+  <si>
+    <t>sefu</t>
+  </si>
+  <si>
+    <t>hepi</t>
+  </si>
+  <si>
+    <t>haso</t>
+  </si>
+  <si>
+    <t>fote</t>
+  </si>
+  <si>
+    <t>dete</t>
+  </si>
+  <si>
+    <t>pati</t>
+  </si>
+  <si>
+    <t>vate</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>hote</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>caga</t>
+  </si>
+  <si>
+    <t>sise</t>
+  </si>
+  <si>
+    <t>doti</t>
+  </si>
+  <si>
+    <t>sade</t>
+  </si>
+  <si>
+    <t>teho</t>
+  </si>
+  <si>
+    <t>gude</t>
+  </si>
+  <si>
+    <t>tibe</t>
+  </si>
+  <si>
+    <t>faha</t>
+  </si>
+  <si>
+    <t>zise</t>
+  </si>
+  <si>
+    <t>tici</t>
+  </si>
+  <si>
+    <t>depe</t>
+  </si>
+  <si>
+    <t>hico</t>
+  </si>
+  <si>
+    <t>evat</t>
+  </si>
+  <si>
+    <t>uhez</t>
+  </si>
+  <si>
+    <t>udid</t>
+  </si>
+  <si>
+    <t>ocip</t>
+  </si>
+  <si>
+    <t>eses</t>
+  </si>
+  <si>
+    <t>ideg</t>
+  </si>
+  <si>
+    <t>epih</t>
+  </si>
+  <si>
+    <t>eked</t>
+  </si>
+  <si>
+    <t>evep</t>
+  </si>
+  <si>
+    <t>etes</t>
+  </si>
+  <si>
+    <t>eqob</t>
+  </si>
+  <si>
+    <t>etas</t>
+  </si>
+  <si>
+    <t>esah</t>
+  </si>
+  <si>
+    <t>edoh</t>
+  </si>
+  <si>
+    <t>oteh</t>
+  </si>
+  <si>
+    <t>uhes</t>
+  </si>
+  <si>
+    <t>ituh</t>
+  </si>
+  <si>
+    <t>epip</t>
+  </si>
+  <si>
+    <t>efep</t>
+  </si>
+  <si>
+    <t>ehes</t>
+  </si>
+  <si>
+    <t>otat</t>
+  </si>
+  <si>
+    <t>ases</t>
+  </si>
+  <si>
+    <t>odiv</t>
+  </si>
+  <si>
+    <t>odoc</t>
+  </si>
+  <si>
+    <t>ihot</t>
+  </si>
+  <si>
+    <t>ipev</t>
+  </si>
+  <si>
+    <t>agop</t>
+  </si>
+  <si>
+    <t>osic</t>
+  </si>
+  <si>
+    <t>ecop</t>
+  </si>
+  <si>
+    <t>otec</t>
+  </si>
+  <si>
+    <t>epod</t>
+  </si>
+  <si>
+    <t>etot</t>
+  </si>
+  <si>
+    <t>ehef</t>
+  </si>
+  <si>
+    <t>itit</t>
+  </si>
+  <si>
+    <t>efos</t>
+  </si>
+  <si>
+    <t>opuf</t>
+  </si>
+  <si>
+    <t>ohek</t>
+  </si>
+  <si>
+    <t>etoh</t>
+  </si>
+  <si>
+    <t>icat</t>
+  </si>
+  <si>
+    <t>ihip</t>
+  </si>
+  <si>
+    <t>asep</t>
+  </si>
+  <si>
+    <t>adah</t>
+  </si>
+  <si>
+    <t>ahas</t>
+  </si>
+  <si>
+    <t>ehud</t>
+  </si>
+  <si>
+    <t>etit</t>
+  </si>
+  <si>
+    <t>idah</t>
+  </si>
+  <si>
+    <t>egoh</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>efet</t>
+  </si>
+  <si>
+    <t>tekec</t>
+  </si>
+  <si>
+    <t>sahoc</t>
+  </si>
+  <si>
+    <t>hatob</t>
+  </si>
+  <si>
+    <t>tohis</t>
+  </si>
+  <si>
+    <t>cefed</t>
+  </si>
+  <si>
+    <t>sesed</t>
+  </si>
+  <si>
+    <t>hihih</t>
+  </si>
+  <si>
+    <t>tecet</t>
+  </si>
+  <si>
+    <t>dahec</t>
+  </si>
+  <si>
+    <t>xehap</t>
+  </si>
+  <si>
+    <t>tatef</t>
+  </si>
+  <si>
+    <t>teceg</t>
+  </si>
+  <si>
+    <t>tetut</t>
+  </si>
+  <si>
+    <t>teset</t>
+  </si>
+  <si>
+    <t>setot</t>
+  </si>
+  <si>
+    <t>vitoc</t>
+  </si>
+  <si>
+    <t>dated</t>
+  </si>
+  <si>
+    <t>cacet</t>
+  </si>
+  <si>
+    <t>pivat</t>
+  </si>
+  <si>
+    <t>dohos</t>
+  </si>
+  <si>
+    <t>sibed</t>
+  </si>
+  <si>
+    <t>secas</t>
+  </si>
+  <si>
+    <t>sadof</t>
+  </si>
+  <si>
+    <t>tisit</t>
+  </si>
+  <si>
+    <t>tehid</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>hedix</t>
+  </si>
+  <si>
+    <t>tepet</t>
+  </si>
+  <si>
+    <t>teheh</t>
+  </si>
+  <si>
+    <t>heked</t>
+  </si>
+  <si>
+    <t>sotes</t>
+  </si>
+  <si>
+    <t>hafeh</t>
+  </si>
+  <si>
+    <t>posas</t>
+  </si>
+  <si>
+    <t>vegat</t>
+  </si>
+  <si>
+    <t>hubet</t>
+  </si>
+  <si>
+    <t>sedeb</t>
+  </si>
+  <si>
+    <t>getas</t>
+  </si>
+  <si>
+    <t>fetoh</t>
+  </si>
+  <si>
+    <t>davah</t>
+  </si>
+  <si>
+    <t>hihis</t>
+  </si>
+  <si>
+    <t>pipah</t>
+  </si>
+  <si>
+    <t>betop</t>
+  </si>
+  <si>
+    <t>pekag</t>
+  </si>
+  <si>
+    <t>datoc</t>
+  </si>
+  <si>
+    <t>teves</t>
+  </si>
+  <si>
+    <t>sohet</t>
+  </si>
+  <si>
+    <t>boces</t>
+  </si>
+  <si>
+    <t>vocig</t>
+  </si>
+  <si>
+    <t>pocaf</t>
+  </si>
+  <si>
+    <t>pigeg</t>
+  </si>
+  <si>
+    <t>orva</t>
+  </si>
+  <si>
+    <t>ewfa</t>
+  </si>
+  <si>
+    <t>omha</t>
+  </si>
+  <si>
+    <t>emta</t>
+  </si>
+  <si>
+    <t>ampe</t>
+  </si>
+  <si>
+    <t>emdo</t>
+  </si>
+  <si>
+    <t>eyge</t>
+  </si>
+  <si>
+    <t>imda</t>
+  </si>
+  <si>
+    <t>imho</t>
+  </si>
+  <si>
+    <t>emto</t>
+  </si>
+  <si>
+    <t>irsu</t>
+  </si>
+  <si>
+    <t>orpi</t>
+  </si>
+  <si>
+    <t>erte</t>
+  </si>
+  <si>
+    <t>irha</t>
+  </si>
+  <si>
+    <t>olti</t>
+  </si>
+  <si>
+    <t>ardu</t>
+  </si>
+  <si>
+    <t>enhi</t>
+  </si>
+  <si>
+    <t>irta</t>
+  </si>
+  <si>
+    <t>uwgi</t>
+  </si>
+  <si>
+    <t>orpe</t>
+  </si>
+  <si>
+    <t>ante</t>
+  </si>
+  <si>
+    <t>imto</t>
+  </si>
+  <si>
+    <t>uyfe</t>
+  </si>
+  <si>
+    <t>empu</t>
+  </si>
+  <si>
+    <t>elfa</t>
+  </si>
+  <si>
+    <t>irva</t>
+  </si>
+  <si>
+    <t>alse</t>
+  </si>
+  <si>
+    <t>elho</t>
+  </si>
+  <si>
+    <t>erse</t>
+  </si>
+  <si>
+    <t>umso</t>
+  </si>
+  <si>
+    <t>umbo</t>
+  </si>
+  <si>
+    <t>ansa</t>
+  </si>
+  <si>
+    <t>irpa</t>
+  </si>
+  <si>
+    <t>uyhe</t>
+  </si>
+  <si>
+    <t>envo</t>
+  </si>
+  <si>
+    <t>arda</t>
+  </si>
+  <si>
+    <t>arke</t>
+  </si>
+  <si>
+    <t>emga</t>
+  </si>
+  <si>
+    <t>omta</t>
+  </si>
+  <si>
+    <t>orte</t>
+  </si>
+  <si>
+    <t>oyte</t>
+  </si>
+  <si>
+    <t>enhu</t>
+  </si>
+  <si>
+    <t>ergu</t>
+  </si>
+  <si>
+    <t>empe</t>
+  </si>
+  <si>
+    <t>ulgu</t>
+  </si>
+  <si>
+    <t>awso</t>
+  </si>
+  <si>
+    <t>ampa</t>
+  </si>
+  <si>
+    <t>iyde</t>
+  </si>
+  <si>
+    <t>alpu</t>
+  </si>
+  <si>
+    <t>amti</t>
+  </si>
+  <si>
+    <t>ewv</t>
+  </si>
+  <si>
+    <t>elb</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>ewt</t>
+  </si>
+  <si>
+    <t>ers</t>
+  </si>
+  <si>
+    <t>amg</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>ert</t>
+  </si>
+  <si>
+    <t>imh</t>
+  </si>
+  <si>
+    <t>omc</t>
+  </si>
+  <si>
+    <t>arh</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>erp</t>
+  </si>
+  <si>
+    <t>emh</t>
+  </si>
+  <si>
+    <t>orp</t>
+  </si>
+  <si>
+    <t>ewh</t>
+  </si>
+  <si>
+    <t>erf</t>
+  </si>
+  <si>
+    <t>owt</t>
+  </si>
+  <si>
+    <t>iwt</t>
+  </si>
+  <si>
+    <t>ewp</t>
+  </si>
+  <si>
+    <t>alh</t>
+  </si>
+  <si>
+    <t>imc</t>
+  </si>
+  <si>
+    <t>ard</t>
+  </si>
+  <si>
+    <t>iyp</t>
+  </si>
+  <si>
+    <t>ams</t>
+  </si>
+  <si>
+    <t>erc</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>elp</t>
+  </si>
+  <si>
+    <t>ewd</t>
+  </si>
+  <si>
+    <t>ews</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>emf</t>
+  </si>
+  <si>
+    <t>irt</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>onk</t>
+  </si>
+  <si>
+    <t>amd</t>
+  </si>
+  <si>
+    <t>awh</t>
+  </si>
+  <si>
+    <t>elt</t>
+  </si>
+  <si>
+    <t>urp</t>
+  </si>
+  <si>
+    <t>ayp</t>
+  </si>
+  <si>
+    <t>momd</t>
+  </si>
+  <si>
+    <t>wowk</t>
+  </si>
+  <si>
+    <t>remd</t>
+  </si>
+  <si>
+    <t>malc</t>
+  </si>
+  <si>
+    <t>mers</t>
+  </si>
+  <si>
+    <t>mims</t>
+  </si>
+  <si>
+    <t>nays</t>
+  </si>
+  <si>
+    <t>merb</t>
+  </si>
+  <si>
+    <t>yerc</t>
+  </si>
+  <si>
+    <t>welt</t>
+  </si>
+  <si>
+    <t>lawt</t>
+  </si>
+  <si>
+    <t>miwc</t>
+  </si>
+  <si>
+    <t>remv</t>
+  </si>
+  <si>
+    <t>rewf</t>
+  </si>
+  <si>
+    <t>memt</t>
+  </si>
+  <si>
+    <t>namt</t>
+  </si>
+  <si>
+    <t>mamc</t>
+  </si>
+  <si>
+    <t>yiwd</t>
+  </si>
+  <si>
+    <t>woyg</t>
+  </si>
+  <si>
+    <t>muwd</t>
+  </si>
+  <si>
+    <t>marp</t>
+  </si>
+  <si>
+    <t>weyh</t>
+  </si>
+  <si>
+    <t>morp</t>
+  </si>
+  <si>
+    <t>yort</t>
+  </si>
+  <si>
+    <t>wert</t>
+  </si>
+  <si>
+    <t>rurf</t>
+  </si>
+  <si>
+    <t>wimb</t>
+  </si>
+  <si>
+    <t>moms</t>
+  </si>
+  <si>
+    <t>ruwh</t>
+  </si>
+  <si>
+    <t>lalv</t>
+  </si>
+  <si>
+    <t>mirb</t>
+  </si>
+  <si>
+    <t>roms</t>
+  </si>
+  <si>
+    <t>ramd</t>
+  </si>
+  <si>
+    <t>molp</t>
+  </si>
+  <si>
+    <t>lorh</t>
+  </si>
+  <si>
+    <t>rerg</t>
+  </si>
+  <si>
+    <t>lers</t>
+  </si>
+  <si>
+    <t>reyc</t>
+  </si>
+  <si>
+    <t>morc</t>
+  </si>
+  <si>
+    <t>nont</t>
+  </si>
+  <si>
+    <t>walt</t>
+  </si>
+  <si>
+    <t>yomg</t>
+  </si>
+  <si>
+    <t>mirs</t>
+  </si>
+  <si>
+    <t>wams</t>
+  </si>
+  <si>
+    <t>romt</t>
+  </si>
+  <si>
+    <t>remb</t>
+  </si>
+  <si>
+    <t>lerc</t>
+  </si>
+  <si>
+    <t>maws</t>
+  </si>
+  <si>
+    <t>mals</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>loh</t>
+  </si>
+  <si>
+    <t>mah</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>nih</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>meh</t>
+  </si>
+  <si>
+    <t>nef</t>
+  </si>
+  <si>
+    <t>rah</t>
+  </si>
+  <si>
+    <t>lod</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>wep</t>
+  </si>
+  <si>
+    <t>rac</t>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>yos</t>
+  </si>
+  <si>
+    <t>yad</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>reh</t>
+  </si>
+  <si>
+    <t>mep</t>
+  </si>
+  <si>
+    <t>yav</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>mef</t>
+  </si>
+  <si>
+    <t>ruh</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>reb</t>
+  </si>
+  <si>
+    <t>ras</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>lac</t>
+  </si>
+  <si>
+    <t>nup</t>
+  </si>
+  <si>
+    <t>yap</t>
+  </si>
+  <si>
+    <t>rof</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>yih</t>
+  </si>
+  <si>
+    <t>ros</t>
+  </si>
+  <si>
+    <t>ris</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>mut</t>
+  </si>
+  <si>
+    <t>mih</t>
+  </si>
+  <si>
+    <t>tul</t>
+  </si>
+  <si>
+    <t>tow</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>gaw</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>hil</t>
+  </si>
+  <si>
+    <t>hem</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>pul</t>
+  </si>
+  <si>
+    <t>par</t>
   </si>
   <si>
     <t>dem</t>
+  </si>
+  <si>
+    <t>gor</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>hol</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>fem</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>hiy</t>
+  </si>
+  <si>
+    <t>daj</t>
+  </si>
+  <si>
+    <t>voy</t>
+  </si>
+  <si>
+    <t>tiw</t>
+  </si>
+  <si>
+    <t>tem</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>sar</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>dey</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>vam</t>
+  </si>
+  <si>
+    <t>puy</t>
+  </si>
+  <si>
+    <t>dam</t>
+  </si>
+  <si>
+    <t>dal</t>
+  </si>
+  <si>
+    <t>cew</t>
   </si>
 </sst>
 </file>
@@ -404,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,37 +1770,2487 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Design/Roots.xlsx
+++ b/Experimental Design/Roots.xlsx
@@ -14,582 +14,591 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
   <si>
     <t>Root</t>
   </si>
   <si>
-    <t>hec</t>
-  </si>
-  <si>
-    <t>tob</t>
-  </si>
-  <si>
-    <t>tuh</t>
+    <t>tit</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>ded</t>
+  </si>
+  <si>
+    <t>dah</t>
+  </si>
+  <si>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>tep</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>suc</t>
+  </si>
+  <si>
+    <t>hic</t>
+  </si>
+  <si>
+    <t>pih</t>
   </si>
   <si>
     <t>gas</t>
   </si>
   <si>
+    <t>kut</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>dac</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
     <t>doh</t>
   </si>
   <si>
-    <t>geh</t>
-  </si>
-  <si>
-    <t>deb</t>
-  </si>
-  <si>
-    <t>teh</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>xak</t>
-  </si>
-  <si>
-    <t>gob</t>
-  </si>
-  <si>
-    <t>sif</t>
-  </si>
-  <si>
-    <t>dib</t>
-  </si>
-  <si>
-    <t>cab</t>
-  </si>
-  <si>
-    <t>pag</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>fac</t>
-  </si>
-  <si>
-    <t>afe</t>
-  </si>
-  <si>
-    <t>odo</t>
-  </si>
-  <si>
-    <t>osi</t>
-  </si>
-  <si>
-    <t>oge</t>
-  </si>
-  <si>
-    <t>apu</t>
-  </si>
-  <si>
-    <t>ahu</t>
-  </si>
-  <si>
-    <t>aha</t>
-  </si>
-  <si>
-    <t>obi</t>
-  </si>
-  <si>
-    <t>ade</t>
+    <t>tic</t>
   </si>
   <si>
     <t>ape</t>
   </si>
   <si>
-    <t>isu</t>
+    <t>efe</t>
+  </si>
+  <si>
+    <t>aho</t>
+  </si>
+  <si>
+    <t>uta</t>
+  </si>
+  <si>
+    <t>iho</t>
+  </si>
+  <si>
+    <t>ipa</t>
+  </si>
+  <si>
+    <t>ihe</t>
+  </si>
+  <si>
+    <t>epe</t>
   </si>
   <si>
     <t>ago</t>
   </si>
   <si>
-    <t>aho</t>
-  </si>
-  <si>
-    <t>oci</t>
-  </si>
-  <si>
-    <t>esu</t>
-  </si>
-  <si>
-    <t>eda</t>
-  </si>
-  <si>
-    <t>oso</t>
-  </si>
-  <si>
-    <t>eti</t>
-  </si>
-  <si>
-    <t>osu</t>
-  </si>
-  <si>
-    <t>asi</t>
-  </si>
-  <si>
-    <t>pede</t>
-  </si>
-  <si>
-    <t>safa</t>
-  </si>
-  <si>
-    <t>coho</t>
-  </si>
-  <si>
-    <t>sifa</t>
-  </si>
-  <si>
-    <t>cesi</t>
-  </si>
-  <si>
-    <t>sisa</t>
-  </si>
-  <si>
-    <t>tate</t>
-  </si>
-  <si>
-    <t>tapa</t>
-  </si>
-  <si>
-    <t>teho</t>
-  </si>
-  <si>
-    <t>kesi</t>
-  </si>
-  <si>
-    <t>dado</t>
-  </si>
-  <si>
-    <t>heta</t>
-  </si>
-  <si>
-    <t>tuto</t>
-  </si>
-  <si>
-    <t>cate</t>
-  </si>
-  <si>
-    <t>tepi</t>
+    <t>ede</t>
+  </si>
+  <si>
+    <t>eto</t>
+  </si>
+  <si>
+    <t>ebo</t>
+  </si>
+  <si>
+    <t>eha</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>ete</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>ati</t>
+  </si>
+  <si>
+    <t>epi</t>
+  </si>
+  <si>
+    <t>pisa</t>
+  </si>
+  <si>
+    <t>teda</t>
+  </si>
+  <si>
+    <t>dibe</t>
+  </si>
+  <si>
+    <t>beho</t>
   </si>
   <si>
     <t>suci</t>
   </si>
   <si>
-    <t>dufo</t>
-  </si>
-  <si>
-    <t>depu</t>
-  </si>
-  <si>
-    <t>sase</t>
-  </si>
-  <si>
-    <t>dahe</t>
-  </si>
-  <si>
-    <t>ocac</t>
-  </si>
-  <si>
-    <t>ohad</t>
-  </si>
-  <si>
-    <t>eheb</t>
-  </si>
-  <si>
-    <t>atok</t>
-  </si>
-  <si>
-    <t>ibas</t>
-  </si>
-  <si>
-    <t>ehit</t>
-  </si>
-  <si>
-    <t>opit</t>
-  </si>
-  <si>
-    <t>etep</t>
-  </si>
-  <si>
-    <t>oded</t>
+    <t>fesu</t>
+  </si>
+  <si>
+    <t>koco</t>
+  </si>
+  <si>
+    <t>hita</t>
+  </si>
+  <si>
+    <t>gato</t>
+  </si>
+  <si>
+    <t>tise</t>
+  </si>
+  <si>
+    <t>digo</t>
+  </si>
+  <si>
+    <t>tote</t>
+  </si>
+  <si>
+    <t>hisi</t>
+  </si>
+  <si>
+    <t>tita</t>
+  </si>
+  <si>
+    <t>soco</t>
+  </si>
+  <si>
+    <t>pate</t>
+  </si>
+  <si>
+    <t>pipi</t>
+  </si>
+  <si>
+    <t>heto</t>
+  </si>
+  <si>
+    <t>etis</t>
+  </si>
+  <si>
+    <t>edug</t>
+  </si>
+  <si>
+    <t>etat</t>
+  </si>
+  <si>
+    <t>ebuc</t>
+  </si>
+  <si>
+    <t>etib</t>
+  </si>
+  <si>
+    <t>agug</t>
+  </si>
+  <si>
+    <t>ehap</t>
+  </si>
+  <si>
+    <t>ucat</t>
+  </si>
+  <si>
+    <t>isod</t>
+  </si>
+  <si>
+    <t>opus</t>
+  </si>
+  <si>
+    <t>etod</t>
+  </si>
+  <si>
+    <t>etit</t>
+  </si>
+  <si>
+    <t>etet</t>
+  </si>
+  <si>
+    <t>ogap</t>
+  </si>
+  <si>
+    <t>esep</t>
   </si>
   <si>
     <t>epok</t>
   </si>
   <si>
-    <t>esav</t>
-  </si>
-  <si>
-    <t>eduh</t>
-  </si>
-  <si>
-    <t>ehot</t>
-  </si>
-  <si>
-    <t>opas</t>
-  </si>
-  <si>
-    <t>otud</t>
-  </si>
-  <si>
-    <t>acad</t>
-  </si>
-  <si>
-    <t>etov</t>
-  </si>
-  <si>
-    <t>obef</t>
-  </si>
-  <si>
-    <t>asid</t>
-  </si>
-  <si>
-    <t>iset</t>
-  </si>
-  <si>
-    <t>fipet</t>
-  </si>
-  <si>
-    <t>tefeb</t>
-  </si>
-  <si>
-    <t>tahat</t>
-  </si>
-  <si>
-    <t>tibat</t>
-  </si>
-  <si>
-    <t>taheh</t>
-  </si>
-  <si>
-    <t>socic</t>
-  </si>
-  <si>
-    <t>tesuf</t>
-  </si>
-  <si>
-    <t>tofet</t>
-  </si>
-  <si>
-    <t>tocid</t>
-  </si>
-  <si>
-    <t>setot</t>
-  </si>
-  <si>
-    <t>hofot</t>
-  </si>
-  <si>
-    <t>tipoh</t>
-  </si>
-  <si>
-    <t>sofes</t>
-  </si>
-  <si>
-    <t>setut</t>
-  </si>
-  <si>
-    <t>kuked</t>
-  </si>
-  <si>
-    <t>fatub</t>
-  </si>
-  <si>
-    <t>sisec</t>
-  </si>
-  <si>
-    <t>teset</t>
-  </si>
-  <si>
-    <t>setos</t>
-  </si>
-  <si>
-    <t>tehed</t>
-  </si>
-  <si>
-    <t>umde</t>
-  </si>
-  <si>
-    <t>ulca</t>
-  </si>
-  <si>
-    <t>orco</t>
-  </si>
-  <si>
-    <t>amse</t>
-  </si>
-  <si>
-    <t>emso</t>
-  </si>
-  <si>
-    <t>engi</t>
-  </si>
-  <si>
-    <t>onta</t>
-  </si>
-  <si>
-    <t>oyto</t>
-  </si>
-  <si>
-    <t>umto</t>
-  </si>
-  <si>
-    <t>elga</t>
-  </si>
-  <si>
-    <t>amso</t>
-  </si>
-  <si>
-    <t>owti</t>
-  </si>
-  <si>
-    <t>inse</t>
-  </si>
-  <si>
-    <t>awho</t>
-  </si>
-  <si>
-    <t>ewsa</t>
-  </si>
-  <si>
-    <t>orpu</t>
-  </si>
-  <si>
-    <t>eype</t>
-  </si>
-  <si>
-    <t>embi</t>
-  </si>
-  <si>
-    <t>iwdi</t>
-  </si>
-  <si>
-    <t>ems</t>
-  </si>
-  <si>
-    <t>umt</t>
-  </si>
-  <si>
-    <t>emt</t>
+    <t>agaf</t>
+  </si>
+  <si>
+    <t>ebot</t>
+  </si>
+  <si>
+    <t>eses</t>
+  </si>
+  <si>
+    <t>uped</t>
+  </si>
+  <si>
+    <t>badih</t>
+  </si>
+  <si>
+    <t>haset</t>
+  </si>
+  <si>
+    <t>tigos</t>
+  </si>
+  <si>
+    <t>cohoh</t>
+  </si>
+  <si>
+    <t>beteh</t>
+  </si>
+  <si>
+    <t>siseh</t>
+  </si>
+  <si>
+    <t>dopat</t>
+  </si>
+  <si>
+    <t>setes</t>
+  </si>
+  <si>
+    <t>potit</t>
+  </si>
+  <si>
+    <t>hecit</t>
+  </si>
+  <si>
+    <t>seses</t>
+  </si>
+  <si>
+    <t>gavat</t>
+  </si>
+  <si>
+    <t>putes</t>
+  </si>
+  <si>
+    <t>feteh</t>
+  </si>
+  <si>
+    <t>hapup</t>
+  </si>
+  <si>
+    <t>geceg</t>
+  </si>
+  <si>
+    <t>sitat</t>
+  </si>
+  <si>
+    <t>dosit</t>
+  </si>
+  <si>
+    <t>gagit</t>
+  </si>
+  <si>
+    <t>cedeb</t>
+  </si>
+  <si>
+    <t>inho</t>
+  </si>
+  <si>
+    <t>orhi</t>
+  </si>
+  <si>
+    <t>irga</t>
+  </si>
+  <si>
+    <t>ewto</t>
+  </si>
+  <si>
+    <t>ertu</t>
+  </si>
+  <si>
+    <t>irhe</t>
+  </si>
+  <si>
+    <t>awto</t>
+  </si>
+  <si>
+    <t>urto</t>
+  </si>
+  <si>
+    <t>erpi</t>
+  </si>
+  <si>
+    <t>emka</t>
+  </si>
+  <si>
+    <t>ampa</t>
+  </si>
+  <si>
+    <t>ersa</t>
+  </si>
+  <si>
+    <t>arda</t>
+  </si>
+  <si>
+    <t>omhe</t>
+  </si>
+  <si>
+    <t>iwte</t>
+  </si>
+  <si>
+    <t>emto</t>
+  </si>
+  <si>
+    <t>irho</t>
+  </si>
+  <si>
+    <t>alte</t>
+  </si>
+  <si>
+    <t>iyti</t>
+  </si>
+  <si>
+    <t>eygu</t>
+  </si>
+  <si>
+    <t>ilc</t>
+  </si>
+  <si>
+    <t>iyt</t>
   </si>
   <si>
     <t>emp</t>
   </si>
   <si>
+    <t>imh</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>oms</t>
+  </si>
+  <si>
+    <t>eyh</t>
+  </si>
+  <si>
+    <t>ejh</t>
+  </si>
+  <si>
+    <t>amc</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
     <t>emd</t>
   </si>
   <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>emh</t>
-  </si>
-  <si>
-    <t>imb</t>
-  </si>
-  <si>
-    <t>erv</t>
-  </si>
-  <si>
-    <t>ens</t>
-  </si>
-  <si>
-    <t>arp</t>
-  </si>
-  <si>
-    <t>ewf</t>
-  </si>
-  <si>
-    <t>enf</t>
-  </si>
-  <si>
-    <t>elb</t>
-  </si>
-  <si>
-    <t>ild</t>
-  </si>
-  <si>
-    <t>als</t>
-  </si>
-  <si>
-    <t>und</t>
-  </si>
-  <si>
-    <t>orh</t>
-  </si>
-  <si>
-    <t>imk</t>
-  </si>
-  <si>
-    <t>romt</t>
-  </si>
-  <si>
-    <t>merh</t>
-  </si>
-  <si>
-    <t>memt</t>
-  </si>
-  <si>
-    <t>rowd</t>
-  </si>
-  <si>
-    <t>limk</t>
-  </si>
-  <si>
-    <t>marh</t>
-  </si>
-  <si>
-    <t>relv</t>
-  </si>
-  <si>
-    <t>melh</t>
-  </si>
-  <si>
-    <t>nals</t>
-  </si>
-  <si>
-    <t>nomp</t>
-  </si>
-  <si>
-    <t>rurh</t>
-  </si>
-  <si>
-    <t>wiyh</t>
-  </si>
-  <si>
-    <t>remk</t>
-  </si>
-  <si>
-    <t>lomt</t>
-  </si>
-  <si>
-    <t>yunf</t>
-  </si>
-  <si>
-    <t>yamp</t>
-  </si>
-  <si>
-    <t>wimp</t>
-  </si>
-  <si>
-    <t>mams</t>
-  </si>
-  <si>
-    <t>yoyc</t>
-  </si>
-  <si>
-    <t>mah</t>
-  </si>
-  <si>
-    <t>rob</t>
-  </si>
-  <si>
-    <t>lih</t>
-  </si>
-  <si>
-    <t>reb</t>
-  </si>
-  <si>
-    <t>yet</t>
+    <t>irc</t>
+  </si>
+  <si>
+    <t>elt</t>
+  </si>
+  <si>
+    <t>irf</t>
+  </si>
+  <si>
+    <t>amf</t>
+  </si>
+  <si>
+    <t>iys</t>
+  </si>
+  <si>
+    <t>nand</t>
+  </si>
+  <si>
+    <t>rimf</t>
+  </si>
+  <si>
+    <t>romh</t>
+  </si>
+  <si>
+    <t>yems</t>
+  </si>
+  <si>
+    <t>moms</t>
+  </si>
+  <si>
+    <t>mumd</t>
+  </si>
+  <si>
+    <t>rarp</t>
+  </si>
+  <si>
+    <t>rerf</t>
+  </si>
+  <si>
+    <t>rewp</t>
+  </si>
+  <si>
+    <t>rirp</t>
+  </si>
+  <si>
+    <t>wamf</t>
+  </si>
+  <si>
+    <t>mumk</t>
+  </si>
+  <si>
+    <t>rarf</t>
+  </si>
+  <si>
+    <t>momh</t>
+  </si>
+  <si>
+    <t>waws</t>
+  </si>
+  <si>
+    <t>lumc</t>
+  </si>
+  <si>
+    <t>lelb</t>
+  </si>
+  <si>
+    <t>momt</t>
+  </si>
+  <si>
+    <t>yorb</t>
+  </si>
+  <si>
+    <t>lerh</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>nob</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>rov</t>
+  </si>
+  <si>
+    <t>rit</t>
   </si>
   <si>
     <t>mis</t>
   </si>
   <si>
-    <t>rah</t>
-  </si>
-  <si>
-    <t>yud</t>
-  </si>
-  <si>
-    <t>yih</t>
-  </si>
-  <si>
-    <t>nof</t>
-  </si>
-  <si>
-    <t>las</t>
-  </si>
-  <si>
-    <t>rap</t>
-  </si>
-  <si>
-    <t>ris</t>
-  </si>
-  <si>
-    <t>woh</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>rop</t>
-  </si>
-  <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>tiy</t>
-  </si>
-  <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>her</t>
-  </si>
-  <si>
-    <t>tim</t>
+    <t>map</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>ruh</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>wuc</t>
+  </si>
+  <si>
+    <t>meh</t>
+  </si>
+  <si>
+    <t>ras</t>
+  </si>
+  <si>
+    <t>wot</t>
+  </si>
+  <si>
+    <t>nos</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>ruv</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>pom</t>
+  </si>
+  <si>
+    <t>cew</t>
+  </si>
+  <si>
+    <t>pem</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
   <si>
     <t>tur</t>
   </si>
   <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>tem</t>
-  </si>
-  <si>
-    <t>ser</t>
-  </si>
-  <si>
-    <t>fom</t>
-  </si>
-  <si>
-    <t>fir</t>
-  </si>
-  <si>
-    <t>kim</t>
-  </si>
-  <si>
-    <t>sar</t>
+    <t>say</t>
   </si>
   <si>
     <t>ten</t>
   </si>
   <si>
-    <t>pen</t>
-  </si>
-  <si>
-    <t>kal</t>
-  </si>
-  <si>
     <t>paw</t>
   </si>
   <si>
-    <t>hor</t>
+    <t>com</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>pum</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>bel</t>
   </si>
 </sst>
 </file>
@@ -1020,227 +1029,227 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -1550,57 +1559,57 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -1640,7 +1649,7 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -1725,237 +1734,237 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
